--- a/data/nodecorrelation.xlsx
+++ b/data/nodecorrelation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11610" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resolution" sheetId="8" r:id="rId1"/>
@@ -9315,16 +9315,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>757237</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>757237</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9345,16 +9345,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9375,16 +9375,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>890587</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9405,16 +9405,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>881062</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>757237</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>757237</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9830,7 +9830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -10240,7 +10240,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11571,12 +11571,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1377"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="5" width="18.140625" customWidth="1"/>
